--- a/docs/Python/PA.xlsx
+++ b/docs/Python/PA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Padulla\Documents\GitHub\corona_dash\docs\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6FD12B-8179-471F-800A-1AC3DF9DDE4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85FD7F8-F82B-4DE0-A859-519E84B8A087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Data</t>
   </si>
@@ -94,9 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,11 +415,12 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -451,8 +453,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="A2" s="2">
+        <v>43959</v>
       </c>
       <c r="B2">
         <v>1122</v>

--- a/docs/Python/PA.xlsx
+++ b/docs/Python/PA.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Padulla\Documents\GitHub\corona_dash\docs\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85FD7F8-F82B-4DE0-A859-519E84B8A087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CB7E04-6A8F-4CE5-984B-DBD197259955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Data</t>
   </si>
@@ -37,15 +47,15 @@
     <t>uti_disp</t>
   </si>
   <si>
+    <t>55.53%</t>
+  </si>
+  <si>
+    <t>91.15%</t>
+  </si>
+  <si>
     <t>09/05/2020</t>
   </si>
   <si>
-    <t>55.53%</t>
-  </si>
-  <si>
-    <t>91.15%</t>
-  </si>
-  <si>
     <t>55.18%</t>
   </si>
   <si>
@@ -59,6 +69,15 @@
   </si>
   <si>
     <t>82.63%</t>
+  </si>
+  <si>
+    <t>11/05/2020</t>
+  </si>
+  <si>
+    <t>55.78%</t>
+  </si>
+  <si>
+    <t>79.32%</t>
   </si>
 </sst>
 </file>
@@ -412,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I2" sqref="I2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -429,7 +448,7 @@
     <col min="7" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43959</v>
       </c>
@@ -463,7 +482,7 @@
         <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>192</v>
@@ -472,12 +491,12 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
       </c>
       <c r="B3">
         <v>1109</v>
@@ -497,8 +516,10 @@
       <c r="G3" t="s">
         <v>9</v>
       </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -520,6 +541,36 @@
       <c r="G4" t="s">
         <v>12</v>
       </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1108</v>
+      </c>
+      <c r="C5">
+        <v>490</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>266</v>
+      </c>
+      <c r="F5">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/docs/Python/PA.xlsx
+++ b/docs/Python/PA.xlsx
@@ -1,101 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Padulla\Documents\GitHub\corona_dash\docs\Python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CB7E04-6A8F-4CE5-984B-DBD197259955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Clinico_total</t>
-  </si>
-  <si>
-    <t>Clinico_disp</t>
-  </si>
-  <si>
-    <t>uti_total</t>
-  </si>
-  <si>
-    <t>uti_disp</t>
-  </si>
-  <si>
-    <t>55.53%</t>
-  </si>
-  <si>
-    <t>91.15%</t>
-  </si>
-  <si>
-    <t>09/05/2020</t>
-  </si>
-  <si>
-    <t>55.18%</t>
-  </si>
-  <si>
-    <t>85.14%</t>
-  </si>
-  <si>
-    <t>10/05/2020</t>
-  </si>
-  <si>
-    <t>53.47%</t>
-  </si>
-  <si>
-    <t>82.63%</t>
-  </si>
-  <si>
-    <t>11/05/2020</t>
-  </si>
-  <si>
-    <t>55.78%</t>
-  </si>
-  <si>
-    <t>79.32%</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -114,23 +46,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -430,149 +353,210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="12.140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="12.28515625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
+    <col width="8.5703125" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
+    <col width="8.140625" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Clinico_total</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Clinico_disp</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Clinico_disp</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>uti_total</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>uti_disp</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>uti_disp</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>43959</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>1122</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>499</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.53%</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>192</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>91.15%</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09/05/2020</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1109</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>497</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.18%</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>249</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>85.14%</t>
+        </is>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10/05/2020</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1109</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>516</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.47%</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>259</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>45</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>82.63%</t>
+        </is>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>11/05/2020</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>1108</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>490</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.78%</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>266</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>55</v>
       </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>79.32%</t>
+        </is>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J7" s="1"/>
+    <row r="7"/>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>12/05/2020</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1108</v>
+      </c>
+      <c r="C8" t="n">
+        <v>490</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.78%</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>266</v>
+      </c>
+      <c r="F8" t="n">
+        <v>55</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>79.32%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>
--- a/docs/Python/PA.xlsx
+++ b/docs/Python/PA.xlsx
@@ -1,33 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Padulla\Documents\GitHub\corona_dash\docs\Python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028DD53B-FCEC-4A45-B271-97EBB85AABCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Clinico_total</t>
+  </si>
+  <si>
+    <t>Clinico_disp</t>
+  </si>
+  <si>
+    <t>uti_total</t>
+  </si>
+  <si>
+    <t>uti_disp</t>
+  </si>
+  <si>
+    <t>55.53%</t>
+  </si>
+  <si>
+    <t>91.15%</t>
+  </si>
+  <si>
+    <t>09/05/2020</t>
+  </si>
+  <si>
+    <t>55.18%</t>
+  </si>
+  <si>
+    <t>85.14%</t>
+  </si>
+  <si>
+    <t>10/05/2020</t>
+  </si>
+  <si>
+    <t>53.47%</t>
+  </si>
+  <si>
+    <t>82.63%</t>
+  </si>
+  <si>
+    <t>11/05/2020</t>
+  </si>
+  <si>
+    <t>55.78%</t>
+  </si>
+  <si>
+    <t>79.32%</t>
+  </si>
+  <si>
+    <t>12/05/2020</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,14 +107,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,210 +423,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J7"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="10.7109375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="12.140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="12.28515625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.7109375" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="8.5703125" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="8.7109375" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
-    <col width="8.140625" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Clinico_total</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Clinico_disp</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Clinico_disp</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>uti_total</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>uti_disp</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>uti_disp</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>43959</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1122</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>499</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>55.53%</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
         <v>192</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>17</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>91.15%</t>
-        </is>
+      <c r="G2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>09/05/2020</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
         <v>1109</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>497</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>55.18%</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
         <v>249</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>37</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>85.14%</t>
-        </is>
+      <c r="G3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>10/05/2020</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
         <v>1109</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>516</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>53.47%</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
         <v>259</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>45</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>82.63%</t>
-        </is>
+      <c r="G4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
         <v>1108</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>490</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>55.78%</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
         <v>266</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>55</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>79.32%</t>
-        </is>
+      <c r="G5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7"/>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
         <v>1108</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C6">
         <v>490</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>55.78%</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
         <v>266</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F6">
         <v>55</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>79.32%</t>
-        </is>
+      <c r="G6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/docs/Python/PA.xlsx
+++ b/docs/Python/PA.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Padulla\Documents\GitHub\corona_dash\docs\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028DD53B-FCEC-4A45-B271-97EBB85AABCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1DED07-6E08-4D5B-999E-9F5BE8F4D083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Data</t>
   </si>
@@ -71,6 +81,15 @@
   </si>
   <si>
     <t>12/05/2020</t>
+  </si>
+  <si>
+    <t>13/05/2020</t>
+  </si>
+  <si>
+    <t>59.55%</t>
+  </si>
+  <si>
+    <t>86.74%</t>
   </si>
 </sst>
 </file>
@@ -424,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="I7" sqref="I2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +460,7 @@
     <col min="7" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43959</v>
       </c>
@@ -487,7 +506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -509,8 +528,9 @@
       <c r="G3" t="s">
         <v>9</v>
       </c>
+      <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -532,8 +552,9 @@
       <c r="G4" t="s">
         <v>12</v>
       </c>
+      <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -555,8 +576,9 @@
       <c r="G5" t="s">
         <v>15</v>
       </c>
+      <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -578,6 +600,31 @@
       <c r="G6" t="s">
         <v>15</v>
       </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>1120</v>
+      </c>
+      <c r="C7">
+        <v>453</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>279</v>
+      </c>
+      <c r="F7">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/docs/Python/PA.xlsx
+++ b/docs/Python/PA.xlsx
@@ -1,113 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Padulla\Documents\GitHub\corona_dash\docs\Python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1DED07-6E08-4D5B-999E-9F5BE8F4D083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="31875" yWindow="3075" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Clinico_total</t>
-  </si>
-  <si>
-    <t>Clinico_disp</t>
-  </si>
-  <si>
-    <t>uti_total</t>
-  </si>
-  <si>
-    <t>uti_disp</t>
-  </si>
-  <si>
-    <t>55.53%</t>
-  </si>
-  <si>
-    <t>91.15%</t>
-  </si>
-  <si>
-    <t>09/05/2020</t>
-  </si>
-  <si>
-    <t>55.18%</t>
-  </si>
-  <si>
-    <t>85.14%</t>
-  </si>
-  <si>
-    <t>10/05/2020</t>
-  </si>
-  <si>
-    <t>53.47%</t>
-  </si>
-  <si>
-    <t>82.63%</t>
-  </si>
-  <si>
-    <t>11/05/2020</t>
-  </si>
-  <si>
-    <t>55.78%</t>
-  </si>
-  <si>
-    <t>79.32%</t>
-  </si>
-  <si>
-    <t>12/05/2020</t>
-  </si>
-  <si>
-    <t>13/05/2020</t>
-  </si>
-  <si>
-    <t>59.55%</t>
-  </si>
-  <si>
-    <t>86.74%</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -125,24 +51,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -442,191 +360,316 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I2:I7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="12.140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="12.28515625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
+    <col width="8.5703125" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
+    <col width="8.140625" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Clinico_total</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Clinico_disp</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Clinico_disp</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>uti_total</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>uti_disp</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>uti_disp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>43959</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>1122</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>499</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.53%</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>192</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>91.15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09/05/2020</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1109</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>497</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.18%</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>249</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>85.14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10/05/2020</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1109</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>516</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.47%</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>259</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>45</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>82.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>11/05/2020</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>1108</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>490</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.78%</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>266</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>55</v>
       </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>79.32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12/05/2020</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>1108</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>490</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.78%</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>266</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>55</v>
       </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>79.32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13/05/2020</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>1120</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>453</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.55%</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>279</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>37</v>
       </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="1"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>86.74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>11/05/2021</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1173</v>
+      </c>
+      <c r="C8" t="n">
+        <v>463</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="E8" t="n">
+        <v>300</v>
+      </c>
+      <c r="F8" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1223</v>
+      </c>
+      <c r="C9" t="n">
+        <v>478</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.92%</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>345</v>
+      </c>
+      <c r="F9" t="n">
+        <v>65</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>81.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>17/05/2020</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1223</v>
+      </c>
+      <c r="C10" t="n">
+        <v>478</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>60.92%</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>345</v>
+      </c>
+      <c r="F10" t="n">
+        <v>65</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>81.16%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>
--- a/docs/Python/PA.xlsx
+++ b/docs/Python/PA.xlsx
@@ -1,39 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Padulla\Documents\GitHub\corona_dash\docs\Python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402965B8-82C4-428F-AFAE-D6D5289CF76F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="31875" yWindow="3075" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Clinico_total</t>
+  </si>
+  <si>
+    <t>Clinico_disp</t>
+  </si>
+  <si>
+    <t>uti_total</t>
+  </si>
+  <si>
+    <t>uti_disp</t>
+  </si>
+  <si>
+    <t>55.53%</t>
+  </si>
+  <si>
+    <t>91.15%</t>
+  </si>
+  <si>
+    <t>55.18%</t>
+  </si>
+  <si>
+    <t>85.14%</t>
+  </si>
+  <si>
+    <t>53.47%</t>
+  </si>
+  <si>
+    <t>82.63%</t>
+  </si>
+  <si>
+    <t>55.78%</t>
+  </si>
+  <si>
+    <t>79.32%</t>
+  </si>
+  <si>
+    <t>59.55%</t>
+  </si>
+  <si>
+    <t>86.74%</t>
+  </si>
+  <si>
+    <t>60.92%</t>
+  </si>
+  <si>
+    <t>81.16%</t>
+  </si>
+  <si>
+    <t>61.97%</t>
+  </si>
+  <si>
+    <t>83.52%</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,16 +112,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -360,316 +429,278 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="10.7109375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="12.140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="12.28515625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.7109375" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="8.5703125" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="8.7109375" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
-    <col width="8.140625" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Clinico_total</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Clinico_disp</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Clinico_disp</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>uti_total</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>uti_disp</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>uti_disp</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>43959</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1122</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>499</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>55.53%</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
         <v>192</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>17</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>91.15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>09/05/2020</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B3">
         <v>1109</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>497</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>55.18%</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
         <v>249</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>37</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>85.14%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>10/05/2020</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B4">
         <v>1109</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>516</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>53.47%</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
         <v>259</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>45</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>82.63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>11/05/2020</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B5">
         <v>1108</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>490</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>55.78%</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
         <v>266</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>55</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>79.32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>12/05/2020</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B6">
         <v>1108</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>490</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>55.78%</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
         <v>266</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>55</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>79.32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B7">
         <v>1120</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>453</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>59.55%</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
         <v>279</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>37</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>86.74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>11/05/2021</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B8">
         <v>1173</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>463</v>
       </c>
-      <c r="D8" s="3" t="n">
-        <v>0.602</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
         <v>300</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>52</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>43966</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1223</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>478</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>60.92%</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
         <v>345</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>65</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>81.16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>17/05/2020</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B10">
         <v>1223</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>478</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>60.92%</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
         <v>345</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>65</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>81.16%</t>
-        </is>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B11">
+        <v>1236</v>
+      </c>
+      <c r="C11">
+        <v>470</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>364</v>
+      </c>
+      <c r="F11">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/docs/Python/PA.xlsx
+++ b/docs/Python/PA.xlsx
@@ -1,100 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Padulla\Documents\GitHub\corona_dash\docs\Python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402965B8-82C4-428F-AFAE-D6D5289CF76F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Clinico_total</t>
-  </si>
-  <si>
-    <t>Clinico_disp</t>
-  </si>
-  <si>
-    <t>uti_total</t>
-  </si>
-  <si>
-    <t>uti_disp</t>
-  </si>
-  <si>
-    <t>55.53%</t>
-  </si>
-  <si>
-    <t>91.15%</t>
-  </si>
-  <si>
-    <t>55.18%</t>
-  </si>
-  <si>
-    <t>85.14%</t>
-  </si>
-  <si>
-    <t>53.47%</t>
-  </si>
-  <si>
-    <t>82.63%</t>
-  </si>
-  <si>
-    <t>55.78%</t>
-  </si>
-  <si>
-    <t>79.32%</t>
-  </si>
-  <si>
-    <t>59.55%</t>
-  </si>
-  <si>
-    <t>86.74%</t>
-  </si>
-  <si>
-    <t>60.92%</t>
-  </si>
-  <si>
-    <t>81.16%</t>
-  </si>
-  <si>
-    <t>61.97%</t>
-  </si>
-  <si>
-    <t>83.52%</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -113,23 +46,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -429,278 +353,365 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="12.140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="12.28515625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
+    <col width="8.5703125" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
+    <col width="8.140625" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Clinico_total</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Clinico_disp</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Clinico_disp</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>uti_total</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>uti_disp</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>uti_disp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>43959</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>1122</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>499</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.53%</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>192</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>91.15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>1109</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>497</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.18%</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>249</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>85.14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>43961</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>1109</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>516</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.47%</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>259</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>45</v>
       </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>82.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>43962</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>1108</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>490</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.78%</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>266</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>55</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>79.32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>43963</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>1108</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>490</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.78%</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>266</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>55</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>79.32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>43964</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>1120</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>453</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.55%</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>279</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>37</v>
       </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>86.74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>43965</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>1173</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>463</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.78%</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>300</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>52</v>
       </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>82.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>43966</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>1223</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>478</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.92%</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>345</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>65</v>
       </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>81.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>43967</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>1223</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>478</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>60.92%</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>345</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>65</v>
       </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>81.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>43968</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>1236</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>470</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>61.97%</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>364</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>60</v>
       </c>
-      <c r="G11" t="s">
-        <v>18</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>83.52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>18/05/2020</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1236</v>
+      </c>
+      <c r="C12" t="n">
+        <v>470</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>61.97%</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>364</v>
+      </c>
+      <c r="F12" t="n">
+        <v>60</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>83.52%</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>
--- a/docs/Python/PA.xlsx
+++ b/docs/Python/PA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
@@ -711,6 +711,35 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>19/05/2020</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1236</v>
+      </c>
+      <c r="C13" t="n">
+        <v>470</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>61.97%</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>364</v>
+      </c>
+      <c r="F13" t="n">
+        <v>60</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>83.52%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/docs/Python/PA.xlsx
+++ b/docs/Python/PA.xlsx
@@ -1,33 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Padulla\Documents\GitHub\corona_dash\docs\Python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5FD022-195A-4F86-BB7F-203C78980D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Clinico_total</t>
+  </si>
+  <si>
+    <t>Clinico_disp</t>
+  </si>
+  <si>
+    <t>uti_total</t>
+  </si>
+  <si>
+    <t>uti_disp</t>
+  </si>
+  <si>
+    <t>55.53%</t>
+  </si>
+  <si>
+    <t>91.15%</t>
+  </si>
+  <si>
+    <t>55.18%</t>
+  </si>
+  <si>
+    <t>85.14%</t>
+  </si>
+  <si>
+    <t>53.47%</t>
+  </si>
+  <si>
+    <t>82.63%</t>
+  </si>
+  <si>
+    <t>55.78%</t>
+  </si>
+  <si>
+    <t>79.32%</t>
+  </si>
+  <si>
+    <t>59.55%</t>
+  </si>
+  <si>
+    <t>86.74%</t>
+  </si>
+  <si>
+    <t>60.92%</t>
+  </si>
+  <si>
+    <t>81.16%</t>
+  </si>
+  <si>
+    <t>61.97%</t>
+  </si>
+  <si>
+    <t>83.52%</t>
+  </si>
+  <si>
+    <t>18/05/2020</t>
+  </si>
+  <si>
+    <t>19/05/2020</t>
+  </si>
+  <si>
+    <t>28/05/2020</t>
+  </si>
+  <si>
+    <t>62.59%</t>
+  </si>
+  <si>
+    <t>84.36%</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,14 +128,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,394 +444,347 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="10.7109375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="12.140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="12.28515625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.7109375" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="8.5703125" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="8.7109375" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
-    <col width="8.140625" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Clinico_total</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Clinico_disp</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Clinico_disp</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>uti_total</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>uti_disp</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>uti_disp</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>43959</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1122</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>499</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>55.53%</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
         <v>192</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>17</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>91.15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>43960</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1109</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>497</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>55.18%</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
         <v>249</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>37</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>85.14%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>43961</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1109</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>516</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>53.47%</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
         <v>259</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>45</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>82.63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>43962</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1108</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>490</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>55.78%</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
         <v>266</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>55</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>79.32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>43963</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1108</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>490</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>55.78%</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
         <v>266</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>55</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>79.32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>43964</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1120</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>453</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>59.55%</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
         <v>279</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>37</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>86.74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>43965</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1173</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>463</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>55.78%</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
         <v>300</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>52</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>82.63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>43966</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>1223</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>478</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>60.92%</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
         <v>345</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>65</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>81.16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>43967</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1223</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>478</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>60.92%</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
         <v>345</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>65</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>81.16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>43968</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1236</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>470</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>61.97%</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
         <v>364</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>60</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>83.52%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>18/05/2020</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
         <v>1236</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>470</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>61.97%</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
         <v>364</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>60</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>83.52%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>19/05/2020</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
         <v>1236</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>470</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>61.97%</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13">
         <v>364</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>60</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>83.52%</t>
-        </is>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>1326</v>
+      </c>
+      <c r="C14">
+        <v>496</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>473</v>
+      </c>
+      <c r="F14">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>